--- a/biology/Biologie cellulaire et moléculaire/Motif_de_liaison_à_l'ATP/Motif_de_liaison_à_l'ATP.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Motif_de_liaison_à_l'ATP/Motif_de_liaison_à_l'ATP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Motif_de_liaison_%C3%A0_l%27ATP</t>
+          <t>Motif_de_liaison_à_l'ATP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un motif de liaison à l'ATP est une séquence d'acides aminés présente sur des enzymes ou des sous-unités protéiques et permettant à ces dernières de se lier à l'ATP comme substrat afin de l'hydrolyser en ADP. On trouve de tels motifs sur un grand nombre de protéines[1],[2], mais aussi sur des ribozymes[3].
-Le motif de liaison à l'ATP le plus courant des protéines est la boucle P (P-loop) ou motif A de Walker[4],[5]. La similitude génétique et la distribution de ce type de motifs structurels sur un grand nombre de protéines différentes dénote un phénomène de microévolution par lequel un motif structurel efficace a été dupliqué sur les gènes de nombreuses autres protéines.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un motif de liaison à l'ATP est une séquence d'acides aminés présente sur des enzymes ou des sous-unités protéiques et permettant à ces dernières de se lier à l'ATP comme substrat afin de l'hydrolyser en ADP. On trouve de tels motifs sur un grand nombre de protéines mais aussi sur des ribozymes.
+Le motif de liaison à l'ATP le plus courant des protéines est la boucle P (P-loop) ou motif A de Walker,. La similitude génétique et la distribution de ce type de motifs structurels sur un grand nombre de protéines différentes dénote un phénomène de microévolution par lequel un motif structurel efficace a été dupliqué sur les gènes de nombreuses autres protéines.
 Des motifs de liaison à l'ATP sont présents sur les protéines nécessitant l'hydrolyse d'une molécule d'ATP pour fonctionner. On les retrouve sur des transporteurs membranaires, des sous-unités de microtubules, des protéines de flagelles et diverses enzymes hydrolytiques et protéolytiques.
 </t>
         </is>
